--- a/Financials/Yearly/ETAH_YR_FIN.xlsx
+++ b/Financials/Yearly/ETAH_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7092D440-092D-4CDA-B20C-0DD1E2A1C502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAH" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,7 +741,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +768,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,7 +953,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -945,7 +980,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1007,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1020,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1047,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1074,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1101,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1128,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1155,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1182,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1209,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1201,7 +1236,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1344,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1336,7 +1371,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1363,7 +1398,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1425,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1417,12 +1452,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,7 +1510,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1537,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1564,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1591,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1618,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,7 +1672,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1664,7 +1699,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1691,7 +1726,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1753,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,7 +1807,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1799,7 +1834,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,7 +1861,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1853,7 +1888,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1914,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,7 +1941,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,7 +1968,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1960,7 +1995,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,7 +2022,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2014,7 +2049,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2041,7 +2076,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,7 +2157,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2184,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,7 +2305,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2297,7 +2332,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2413,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2405,7 +2440,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,7 +2499,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2491,7 +2526,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,7 +2539,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2566,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,7 +2701,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2693,7 +2728,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,7 +2741,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2768,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,7 +2822,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2814,7 +2849,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2862,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2970,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2962,7 +2997,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2989,7 +3024,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
